--- a/src/main/webapp/static/userModel.xlsx
+++ b/src/main/webapp/static/userModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>工号</t>
   </si>
@@ -28,7 +28,7 @@
     <t>最大空闲时间(秒)</t>
   </si>
   <si>
-    <t>写权限</t>
+    <t>访问权限</t>
   </si>
   <si>
     <t>管理员权限</t>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>300</t>
+  </si>
+  <si>
+    <t>上传,下载,删除,修改</t>
   </si>
   <si>
     <t>否</t>
@@ -82,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,13 +113,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -126,6 +122,75 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,74 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -215,6 +212,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -225,15 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +237,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,9 +454,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,179 +549,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,12 +1033,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="11" width="10" customWidth="1"/>
+    <col min="1" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:11">
@@ -1087,30 +1092,30 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1122,25 +1127,25 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/static/userModel.xlsx
+++ b/src/main/webapp/static/userModel.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>工号</t>
   </si>
   <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>账号类型</t>
+  </si>
+  <si>
     <t>主目录</t>
   </si>
   <si>
@@ -49,7 +55,10 @@
     <t>有效期</t>
   </si>
   <si>
-    <t>425086</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>外部账号</t>
   </si>
   <si>
     <t>/</t>
@@ -61,22 +70,31 @@
     <t>300</t>
   </si>
   <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>01383518</t>
+  </si>
+  <si>
+    <t>wei.li13@sfmail.sf-express.com</t>
+  </si>
+  <si>
+    <t>域账号</t>
+  </si>
+  <si>
     <t>上传,下载,删除,修改</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2020-02-16</t>
-  </si>
-  <si>
-    <t>608823</t>
-  </si>
-  <si>
-    <t>2020-02-17</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -85,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +117,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,13 +137,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -127,47 +190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,26 +229,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,29 +261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,15 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,24 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,153 +534,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,22 +1046,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="11" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:11">
+    <row r="1" ht="25" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,75 +1103,93 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:11">
+    <row r="2" ht="25" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/static/userModel.xlsx
+++ b/src/main/webapp/static/userModel.xlsx
@@ -82,10 +82,10 @@
     <t>2020-08-09</t>
   </si>
   <si>
-    <t>01383518</t>
-  </si>
-  <si>
-    <t>wei.li13@sfmail.sf-express.com</t>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>******@xxx.com</t>
   </si>
   <si>
     <t>域账号</t>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,21 +139,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,40 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,21 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,16 +245,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,26 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,21 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,9 +502,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +549,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,16 +587,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,115 +605,115 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1051,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
